--- a/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
+++ b/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
@@ -4,15 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId3"/>
     <sheet name="AllFeaturesTestDataInstructions" sheetId="2" r:id="rId4"/>
-    <sheet name="FMS_Login" sheetId="3" r:id="rId5"/>
-    <sheet name="FMSParam_login" sheetId="4" r:id="rId6"/>
-    <sheet name="SadsLogin" sheetId="5" r:id="rId7"/>
-    <sheet name="TestExecution" sheetId="6" r:id="rId8"/>
+    <sheet name="CSMParam_login" sheetId="3" r:id="rId5"/>
+    <sheet name="CSM_Login" sheetId="4" r:id="rId6"/>
+    <sheet name="FMSParam_login" sheetId="5" r:id="rId7"/>
+    <sheet name="FMS_Login" sheetId="6" r:id="rId8"/>
+    <sheet name="SadsLogin" sheetId="7" r:id="rId9"/>
+    <sheet name="WIFAK_Application_Testdata" sheetId="8" r:id="rId10"/>
+    <sheet name="TestExecution" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -113,6 +116,60 @@
     <t>FMS_User3</t>
   </si>
   <si>
+    <t>AJITH</t>
+  </si>
+  <si>
+    <t>FMS_User4</t>
+  </si>
+  <si>
+    <t>SANKAR</t>
+  </si>
+  <si>
+    <t>FMS_User5</t>
+  </si>
+  <si>
+    <t>JAY</t>
+  </si>
+  <si>
+    <t>FMS_User6</t>
+  </si>
+  <si>
+    <t>SNEHA</t>
+  </si>
+  <si>
+    <t>FMS_User7</t>
+  </si>
+  <si>
+    <t>KOUSALYA</t>
+  </si>
+  <si>
+    <t>FMS_User8</t>
+  </si>
+  <si>
+    <t>ARUL</t>
+  </si>
+  <si>
+    <t>FMS_User9</t>
+  </si>
+  <si>
+    <t>PRIYANKA</t>
+  </si>
+  <si>
+    <t>FMS_User10</t>
+  </si>
+  <si>
+    <t>RAJAT</t>
+  </si>
+  <si>
+    <t>FMS_User11</t>
+  </si>
+  <si>
+    <t>VIJAYK</t>
+  </si>
+  <si>
+    <t>FMS_User12</t>
+  </si>
+  <si>
     <t>GOWTHAM</t>
   </si>
   <si>
@@ -125,6 +182,33 @@
     <t>FMS_ParamUser3</t>
   </si>
   <si>
+    <t>FMS_ParamUser4</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser5</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser6</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser7</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser8</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser9</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser10</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser11</t>
+  </si>
+  <si>
+    <t>FMS_ParamUser12</t>
+  </si>
+  <si>
     <t>SADS_User1</t>
   </si>
   <si>
@@ -137,13 +221,63 @@
     <t>SYSADM1</t>
   </si>
   <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>Data Set ID</t>
+  </si>
+  <si>
+    <t>Application For</t>
+  </si>
+  <si>
+    <t>CIF No</t>
+  </si>
+  <si>
+    <t>Facility Type</t>
+  </si>
+  <si>
+    <t>Country of Financing</t>
+  </si>
+  <si>
+    <t>Facility Rating</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Expire Date</t>
+  </si>
+  <si>
+    <t>Product Class</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>917005</t>
+    </r>
+  </si>
+  <si>
+    <t>New Facility</t>
+  </si>
+  <si>
+    <t>25/05/2023</t>
+  </si>
+  <si>
     <t>Sequence</t>
-  </si>
-  <si>
-    <t>TestCaseID</t>
-  </si>
-  <si>
-    <t>Data Set ID</t>
   </si>
   <si>
     <t>ExecuteYes/No</t>
@@ -192,7 +326,7 @@
     <numFmt numFmtId="179" formatCode="&quot;Rs.&quot;#,##0.00;[RED]&quot;-Rs.&quot;#,##0.00"/>
     <numFmt numFmtId="180" formatCode="&quot;Rs.&quot;#,##0.00;[RED]-&quot;Rs.&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -239,6 +373,24 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -269,12 +421,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="16"/>
@@ -291,8 +437,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +505,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -377,7 +541,7 @@
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -401,225 +565,218 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="31" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="31" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="27" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="27" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="31" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="27" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="25" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="31" applyFont="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="27" applyFont="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="44"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="33"/>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="21">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="15" builtinId="5"/>
     <cellStyle name="Currency" xfId="16" builtinId="4"/>
@@ -630,28 +787,17 @@
     <cellStyle name="Result2" xfId="21"/>
     <cellStyle name="Heading" xfId="22"/>
     <cellStyle name="Heading1" xfId="23"/>
-    <cellStyle name="ConditionalStyle_5f_5f_5f_1" xfId="24"/>
-    <cellStyle name="ConditionalStyle_5f_5f_5f_2" xfId="25"/>
-    <cellStyle name="ConditionalStyle_5f_5f_5f_5f_5f_5f_5f_1" xfId="26"/>
-    <cellStyle name="ConditionalStyle_5f_5f_5f_5f_5f_5f_5f_2" xfId="27"/>
-    <cellStyle name="Excel_5f_5f_5f_20_5f_5f_5f_Built-in_5f_5f_5f_20_5f_5f_5f_Normal" xfId="28"/>
-    <cellStyle name="Excel_5f_5f_5f_20_5f_5f_5f_Built-in_5f_5f_5f_20_5f_5f_5f_Normal_5f_5f_5f_20_5f_5f_5f_1" xfId="29"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="30"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="31"/>
-    <cellStyle name="Heading_20_1" xfId="32"/>
-    <cellStyle name="Heading1_20_1" xfId="33"/>
-    <cellStyle name="Heading1_5f_20_5f_1" xfId="34"/>
-    <cellStyle name="Heading1_5f_5f_5f_20_5f_5f_5f_1" xfId="35"/>
-    <cellStyle name="Heading_5f_20_5f_1" xfId="36"/>
-    <cellStyle name="Heading_5f_5f_5f_20_5f_5f_5f_1" xfId="37"/>
-    <cellStyle name="Result_20_1" xfId="38"/>
-    <cellStyle name="Result2_20_1" xfId="39"/>
-    <cellStyle name="Result2_5f_20_5f_1" xfId="40"/>
-    <cellStyle name="Result2_5f_5f_5f_20_5f_5f_5f_1" xfId="41"/>
-    <cellStyle name="Result_5f_20_5f_1" xfId="42"/>
-    <cellStyle name="Result_5f_5f_5f_20_5f_5f_5f_1" xfId="43"/>
-    <cellStyle name="ConditionalStyle_5f_2" xfId="44"/>
-    <cellStyle name="ConditionalStyle_5f_1" xfId="45"/>
+    <cellStyle name="Excel_20_Built-in_20_Normal_20_1" xfId="24"/>
+    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="25"/>
+    <cellStyle name="Excel_5f_20_5f_Built-in_5f_20_5f_Normal" xfId="26"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="27"/>
+    <cellStyle name="Heading_20_1" xfId="28"/>
+    <cellStyle name="Heading1_20_1" xfId="29"/>
+    <cellStyle name="Result_20_1" xfId="30"/>
+    <cellStyle name="Result2_20_1" xfId="31"/>
+    <cellStyle name="ConditionalStyle_5f_2" xfId="32"/>
+    <cellStyle name="ConditionalStyle_5f_1" xfId="33"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="34"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1054,23 +1200,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3f109f89-04ce-4275-9d7b-0663f7dc69f0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{af2be0b2-d23b-46b5-9f64-460b91be48f8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.144285714285715" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="30.574285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="23.285714285714285" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.428571428571429" style="6" customWidth="1"/>
-    <col min="3" max="3" width="32.57142857142857" style="6" customWidth="1"/>
-    <col min="4" max="5" width="21.428571428571427" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.857142857142858" style="13" customWidth="1"/>
-    <col min="7" max="7" width="18.285714285714285" style="6" customWidth="1"/>
-    <col min="8" max="8" width="21.285714285714285" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="34.142857142857146" style="6"/>
+    <col min="1" max="1" width="20.857142857142858" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.142857142857142" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.285714285714285" style="6" customWidth="1"/>
+    <col min="4" max="5" width="19.285714285714285" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.714285714285715" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.428571428571427" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19.142857142857142" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="30.571428571428573" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.05">
@@ -1252,25 +1398,25 @@
       <c r="H16" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="5.47244094488189" bottom="5.47244094488189" header="5.275590551181102" footer="5.275590551181102"/>
+  <pageMargins left="0.7" right="0.7" top="4.881889763779528" bottom="4.881889763779528" header="4.68503937007874" footer="4.68503937007874"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b3076632-44b4-423f-b6d9-7e21a83678b7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94f4874c-2d16-4e26-9217-cf59b4b374e4}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="topLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="145.71428571428572" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="130.14428571428573" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="22.142857142857142" style="6" customWidth="1"/>
-    <col min="2" max="2" width="35.42857142857143" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.285714285714285" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="145.71428571428572" style="6"/>
+    <col min="1" max="1" width="19.857142857142858" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31.857142857142858" style="6" customWidth="1"/>
+    <col min="3" max="3" width="40.57142857142857" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="130.14285714285714" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.05">
@@ -1321,27 +1467,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="7.833464566929132" bottom="7.833464566929132" header="7.636614173228344" footer="7.636614173228344"/>
+  <pageMargins left="0.7" right="0.7" top="7.243307086614173" bottom="7.243307086614173" header="7.046456692913385" footer="7.046456692913385"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743e37c4-6618-4e34-8227-eb6cdb862d21}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09e9887a-a302-44a5-b45b-0510e51e2b77}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.004285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="9.854285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="12.428571428571429" style="27" customWidth="1"/>
-    <col min="2" max="2" width="12.142857142857142" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11" style="27"/>
-    <col min="4" max="4" width="16.428571428571427" style="27" customWidth="1"/>
-    <col min="5" max="5" width="13.428571428571429" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="27"/>
+    <col min="1" max="1" width="19.571428571428573" style="26" customWidth="1"/>
+    <col min="2" max="2" width="24.142857142857142" style="26" customWidth="1"/>
+    <col min="3" max="3" width="23" style="26" customWidth="1"/>
+    <col min="4" max="4" width="29.142857142857142" style="26" customWidth="1"/>
+    <col min="5" max="5" width="36.42857142857143" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.857142857142858" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.05">
@@ -1396,66 +1542,219 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.05">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="27">
-        <v>321</v>
-      </c>
-      <c r="D4" s="27">
-        <v>1</v>
-      </c>
-      <c r="E4" s="27">
+      <c r="C4" s="25">
+        <v>321</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.05">
+      <c r="A5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="25">
+        <v>321</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.05">
+      <c r="A6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="25">
+        <v>321</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.05">
+      <c r="A7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="25">
+        <v>321</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.05">
+      <c r="A8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="25">
+        <v>321</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.05">
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="25">
+        <v>321</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.05">
+      <c r="A10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="25">
+        <v>321</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.05">
+      <c r="A11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="25">
+        <v>321</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.05">
+      <c r="A12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="25">
+        <v>321</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.05">
+      <c r="A13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="25">
+        <v>321</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.9307086614173228" bottom="1.9307086614173228" header="1.7338582677165353" footer="1.7338582677165353"/>
+  <pageMargins left="0.7" right="0.7" top="1.340551181102362" bottom="1.340551181102362" header="1.1437007874015748" footer="1.1437007874015748"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e5961f73-d60c-45a9-bace-1e5f054262a2}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54770909-4ddc-4fd9-8a94-33a907cc9cc9}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.004285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="9.854285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="19.285714285714285" style="27" customWidth="1"/>
-    <col min="2" max="2" width="12.142857142857142" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11" style="27"/>
-    <col min="4" max="4" width="16.428571428571427" style="27" customWidth="1"/>
-    <col min="5" max="5" width="13.428571428571429" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="27"/>
+    <col min="1" max="1" width="23.857142857142858" style="26" customWidth="1"/>
+    <col min="2" max="2" width="28.714285714285715" style="26" customWidth="1"/>
+    <col min="3" max="3" width="22.571428571428573" style="26" customWidth="1"/>
+    <col min="4" max="4" width="19.142857142857142" style="26" customWidth="1"/>
+    <col min="5" max="5" width="22.571428571428573" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.857142857142858" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.05">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.05">
       <c r="A2" s="25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>25</v>
@@ -1472,7 +1771,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.05">
       <c r="A3" s="25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>27</v>
@@ -1488,41 +1787,685 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.05">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="25">
+        <v>321</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.05">
+      <c r="A5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="25">
+        <v>321</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.05">
+      <c r="A6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="27">
-        <v>321</v>
-      </c>
-      <c r="D4" s="27">
-        <v>1</v>
-      </c>
-      <c r="E4" s="27">
+      <c r="B6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="25">
+        <v>321</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.05">
+      <c r="A7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="25">
+        <v>321</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.05">
+      <c r="A8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="25">
+        <v>321</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.05">
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="25">
+        <v>321</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.05">
+      <c r="A10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="25">
+        <v>321</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.05">
+      <c r="A11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="25">
+        <v>321</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.05">
+      <c r="A12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="25">
+        <v>321</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.05">
+      <c r="A13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="25">
+        <v>321</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.9307086614173228" bottom="1.9307086614173228" header="1.7338582677165353" footer="1.7338582677165353"/>
+  <pageMargins left="0.7" right="0.7" top="1.340551181102362" bottom="1.340551181102362" header="1.1437007874015748" footer="1.1437007874015748"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a1d5b9a1-a996-4346-8cb9-71e87005f7f3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ada3ba3f-9c38-4158-ad9c-76252cbccdfa}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.854285714285714" defaultRowHeight="14.05"/>
+  <cols>
+    <col min="1" max="1" width="18.857142857142858" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11" style="26" customWidth="1"/>
+    <col min="3" max="3" width="9.857142857142858" style="26" customWidth="1"/>
+    <col min="4" max="4" width="14.714285714285714" style="26" customWidth="1"/>
+    <col min="5" max="5" width="12.142857142857142" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.857142857142858" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.05">
+      <c r="A1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.05">
+      <c r="A2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="25">
+        <v>123</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.05">
+      <c r="A3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="25">
+        <v>321</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.05">
+      <c r="A4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="25">
+        <v>321</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.05">
+      <c r="A5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="25">
+        <v>321</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.05">
+      <c r="A6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="25">
+        <v>321</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.05">
+      <c r="A7" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="25">
+        <v>321</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.05">
+      <c r="A8" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="25">
+        <v>321</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.05">
+      <c r="A9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="25">
+        <v>321</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.05">
+      <c r="A10" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="25">
+        <v>321</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.05">
+      <c r="A11" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="25">
+        <v>321</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.05">
+      <c r="A12" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="25">
+        <v>321</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.05">
+      <c r="A13" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="25">
+        <v>321</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="1.340551181102362" bottom="1.340551181102362" header="1.1437007874015748" footer="1.1437007874015748"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4842d92a-8b62-4515-af3e-c014ef7de47b}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.854285714285714" defaultRowHeight="14.05"/>
+  <cols>
+    <col min="1" max="1" width="14.142857142857142" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11" style="26" customWidth="1"/>
+    <col min="3" max="3" width="9.857142857142858" style="26" customWidth="1"/>
+    <col min="4" max="4" width="14.714285714285714" style="26" customWidth="1"/>
+    <col min="5" max="5" width="12.142857142857142" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.857142857142858" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.05">
+      <c r="A1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.05">
+      <c r="A2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="25">
+        <v>123</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.05">
+      <c r="A3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="25">
+        <v>321</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.05">
+      <c r="A4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="25">
+        <v>321</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.05">
+      <c r="A5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="25">
+        <v>321</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.05">
+      <c r="A6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="25">
+        <v>321</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.05">
+      <c r="A7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="25">
+        <v>321</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.05">
+      <c r="A8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="25">
+        <v>321</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.05">
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="25">
+        <v>321</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.05">
+      <c r="A10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="25">
+        <v>321</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.05">
+      <c r="A11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="25">
+        <v>321</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.05">
+      <c r="A12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="25">
+        <v>321</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.05">
+      <c r="A13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="25">
+        <v>321</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="1.340551181102362" bottom="1.340551181102362" header="1.1437007874015748" footer="1.1437007874015748"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a0c94d08-b112-4ba1-93ab-765864164935}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.004285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="9.854285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="13.428571428571429" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.857142857142858" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="27"/>
+    <col min="1" max="1" width="12.142857142857142" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.714285714285714" style="26" customWidth="1"/>
+    <col min="3" max="3" width="9.857142857142858" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="9.857142857142858" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.05">
@@ -1538,10 +2481,10 @@
     </row>
     <row r="2" spans="1:3" ht="14.05">
       <c r="A2" s="25" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C2" s="25">
         <v>123</v>
@@ -1549,86 +2492,181 @@
     </row>
     <row r="3" spans="1:3" ht="14.05">
       <c r="A3" s="25" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C3" s="25">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.9307086614173228" bottom="1.9307086614173228" header="1.7338582677165353" footer="1.7338582677165353"/>
+  <pageMargins left="0.7" right="0.7" top="1.340551181102362" bottom="1.340551181102362" header="1.1437007874015748" footer="1.1437007874015748"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cb6947c5-b4e5-4ff1-8b64-50ff0fca0c1d}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f25298c6-3006-4f77-8802-ac4be52ea006}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.714285714285714" defaultRowHeight="14.9"/>
+  <cols>
+    <col min="1" max="1" width="13.857142857142858" customWidth="1"/>
+    <col min="2" max="3" width="19.857142857142858" customWidth="1"/>
+    <col min="4" max="4" width="13.428571428571429" customWidth="1"/>
+    <col min="5" max="5" width="17.285714285714285" customWidth="1"/>
+    <col min="6" max="6" width="22.714285714285715" customWidth="1"/>
+    <col min="7" max="7" width="16.571428571428573" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="24.428571428571427" customWidth="1"/>
+    <col min="10" max="10" width="16.857142857142858" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.9">
+      <c r="A1" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.25">
+      <c r="A2" s="29">
+        <v>917005</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="32">
+        <v>727</v>
+      </c>
+      <c r="E2" s="32">
+        <v>369</v>
+      </c>
+      <c r="F2" s="32">
+        <v>320</v>
+      </c>
+      <c r="G2" s="32">
+        <v>2</v>
+      </c>
+      <c r="H2" s="32">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="32">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7874" right="0.7874" top="1.0830692913385827" bottom="1.0830692913385827" header="0.8858251968503936" footer="0.8858251968503936"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29b77f69-96b3-4726-a3e0-f999ead24e31}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="topLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="47.284285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="42.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="11.285714285714286" style="30" customWidth="1"/>
-    <col min="2" max="3" width="16.142857142857142" style="30" customWidth="1"/>
-    <col min="4" max="4" width="17" style="30" customWidth="1"/>
-    <col min="5" max="6" width="31.571428571428573" style="30" customWidth="1"/>
-    <col min="7" max="7" width="33.285714285714285" style="30" customWidth="1"/>
-    <col min="8" max="8" width="32" style="30" customWidth="1"/>
-    <col min="9" max="9" width="31.571428571428573" style="30" customWidth="1"/>
-    <col min="10" max="10" width="30.428571428571427" style="30" customWidth="1"/>
-    <col min="11" max="16384" width="47.285714285714285" style="30"/>
+    <col min="1" max="1" width="10.142857142857142" style="35" customWidth="1"/>
+    <col min="2" max="3" width="14.571428571428571" style="35" customWidth="1"/>
+    <col min="4" max="4" width="15.285714285714286" style="35" customWidth="1"/>
+    <col min="5" max="6" width="28.285714285714285" style="35" customWidth="1"/>
+    <col min="7" max="7" width="29.857142857142858" style="35" customWidth="1"/>
+    <col min="8" max="8" width="28.714285714285715" style="35" customWidth="1"/>
+    <col min="9" max="9" width="28.285714285714285" style="35" customWidth="1"/>
+    <col min="10" max="10" width="27.285714285714285" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="42.285714285714285" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.7" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>46</v>
+      <c r="A1" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.7" customHeight="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>49</v>
+      <c r="B2" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -1641,89 +2679,99 @@
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="14.05">
       <c r="A4" s="21"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="14.05">
       <c r="A5" s="21"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="14.05">
       <c r="A6" s="21"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="14.05">
       <c r="A7" s="21"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="14.05">
       <c r="A8" s="21"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D8">
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>NOT(ISERROR(SEARCH("No",A1)))</formula>
+      <formula/>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>NOT(ISERROR(SEARCH("Yes",A1)))</formula>
+      <formula/>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="9.604330708661418" bottom="9.604330708661418" header="9.407480314960631" footer="9.407480314960631"/>
+  <pageMargins left="0.7" right="0.7" top="9.014173228346458" bottom="9.014173228346458" header="8.81732283464567" footer="8.81732283464567"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
--- a/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
+++ b/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -12,20 +12,27 @@
     <sheet name="CSMParam_login" sheetId="3" r:id="rId3"/>
     <sheet name="CSM_Login" sheetId="4" r:id="rId4"/>
     <sheet name="FMSParam_login" sheetId="5" r:id="rId5"/>
-    <sheet name="MTS_Login" sheetId="12" r:id="rId6"/>
-    <sheet name="IRTS_Login" sheetId="11" r:id="rId7"/>
-    <sheet name="FMS_Login" sheetId="6" r:id="rId8"/>
+    <sheet name="IIS_Login" sheetId="19" r:id="rId6"/>
+    <sheet name="MTS_Login" sheetId="12" r:id="rId7"/>
+    <sheet name="IRTS_Login" sheetId="11" r:id="rId8"/>
     <sheet name="SadsLogin" sheetId="7" r:id="rId9"/>
-    <sheet name="WIFAK_Application_Testdata" sheetId="8" r:id="rId10"/>
-    <sheet name="TestExecution" sheetId="9" r:id="rId11"/>
-    <sheet name="ReqRequest for financing" sheetId="10" r:id="rId12"/>
+    <sheet name="FMS_Login" sheetId="6" r:id="rId10"/>
+    <sheet name="WIFAK_Application_Testdata" sheetId="8" r:id="rId11"/>
+    <sheet name="Facility_Management_Under_WIFAK" sheetId="18" r:id="rId12"/>
+    <sheet name="Facility_Type" sheetId="15" r:id="rId13"/>
+    <sheet name="Baj Application" sheetId="16" r:id="rId14"/>
+    <sheet name="Collateral Management" sheetId="17" r:id="rId15"/>
+    <sheet name="Request" sheetId="14" r:id="rId16"/>
+    <sheet name=" REQUEST_FOR_FINANCIN " sheetId="13" r:id="rId17"/>
+    <sheet name="TestExecution" sheetId="9" r:id="rId18"/>
+    <sheet name="ReqRequest for financing" sheetId="10" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="191">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -253,26 +260,6 @@
     <t>Product Class</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>917005</t>
-    </r>
-  </si>
-  <si>
     <t>New Facility</t>
   </si>
   <si>
@@ -397,6 +384,231 @@
   </si>
   <si>
     <t>MTS_User12</t>
+  </si>
+  <si>
+    <t>First GroupID</t>
+  </si>
+  <si>
+    <t>First Group Limit</t>
+  </si>
+  <si>
+    <t>First Group Name</t>
+  </si>
+  <si>
+    <t>Second Group Limit</t>
+  </si>
+  <si>
+    <t>Second GroupID</t>
+  </si>
+  <si>
+    <t>Second Group Name</t>
+  </si>
+  <si>
+    <t>Modify Request</t>
+  </si>
+  <si>
+    <t>Firstlimit</t>
+  </si>
+  <si>
+    <t>Secondlimit</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Cy</t>
+  </si>
+  <si>
+    <t>UnitCost</t>
+  </si>
+  <si>
+    <t>AT_AFF_017</t>
+  </si>
+  <si>
+    <t>AT_AFF_012</t>
+  </si>
+  <si>
+    <t>AT_RF_021</t>
+  </si>
+  <si>
+    <t>AT_AFF_022</t>
+  </si>
+  <si>
+    <t>AT_AFF_057</t>
+  </si>
+  <si>
+    <t>Down Payment High</t>
+  </si>
+  <si>
+    <t>Down Payment Less</t>
+  </si>
+  <si>
+    <t>AT_FM_017</t>
+  </si>
+  <si>
+    <t>Solicitor Name</t>
+  </si>
+  <si>
+    <t>Estimator Name</t>
+  </si>
+  <si>
+    <t>Approve1 Decision</t>
+  </si>
+  <si>
+    <t>Approve2 Decision</t>
+  </si>
+  <si>
+    <t>Approve3 Decision</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>AT_FM_020</t>
+  </si>
+  <si>
+    <t>Customer CIF</t>
+  </si>
+  <si>
+    <t>Total Limit</t>
+  </si>
+  <si>
+    <t>Margin Value</t>
+  </si>
+  <si>
+    <t>Request Code</t>
+  </si>
+  <si>
+    <t>New Request</t>
+  </si>
+  <si>
+    <t>AT_AFF_060</t>
+  </si>
+  <si>
+    <t>Update After Approve Code</t>
+  </si>
+  <si>
+    <t>AT_AFF_007</t>
+  </si>
+  <si>
+    <t>Product Class 2</t>
+  </si>
+  <si>
+    <t>Product Class 1</t>
+  </si>
+  <si>
+    <t>Facility Value</t>
+  </si>
+  <si>
+    <t>Floating Rate</t>
+  </si>
+  <si>
+    <t>Floating Rate Periodicity</t>
+  </si>
+  <si>
+    <t>Month(s)</t>
+  </si>
+  <si>
+    <t>Floating Rate Periodicity Type</t>
+  </si>
+  <si>
+    <t>Enter Request No</t>
+  </si>
+  <si>
+    <t>Additional Reference</t>
+  </si>
+  <si>
+    <t>AT_RF_022</t>
+  </si>
+  <si>
+    <t>AT_RF_052</t>
+  </si>
+  <si>
+    <t>CIF</t>
+  </si>
+  <si>
+    <t>AT_RF_113</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>AT_FM_054</t>
+  </si>
+  <si>
+    <t>Solicitor Date Sent</t>
+  </si>
+  <si>
+    <t>Solicitor Date Received</t>
+  </si>
+  <si>
+    <t>Estimator Date Sent</t>
+  </si>
+  <si>
+    <t>Estimator Date Received</t>
+  </si>
+  <si>
+    <t>Custodian date Sent</t>
+  </si>
+  <si>
+    <t>second Solicitor Date</t>
+  </si>
+  <si>
+    <t>second Estimator Date</t>
+  </si>
+  <si>
+    <t>second Custodian date</t>
+  </si>
+  <si>
+    <t>16/06/2023</t>
+  </si>
+  <si>
+    <t>IIS_User1</t>
+  </si>
+  <si>
+    <t>IIS_User2</t>
+  </si>
+  <si>
+    <t>IIS_User3</t>
+  </si>
+  <si>
+    <t>IIS_User4</t>
+  </si>
+  <si>
+    <t>IIS_User5</t>
+  </si>
+  <si>
+    <t>IIS_User6</t>
+  </si>
+  <si>
+    <t>IIS_User7</t>
+  </si>
+  <si>
+    <t>IIS_User8</t>
+  </si>
+  <si>
+    <t>IIS_User9</t>
+  </si>
+  <si>
+    <t>IIS_User10</t>
+  </si>
+  <si>
+    <t>IIS_User11</t>
+  </si>
+  <si>
+    <t>IIS_User12</t>
   </si>
 </sst>
 </file>
@@ -407,7 +619,7 @@
     <numFmt numFmtId="164" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;Rs.&quot;#,##0.00;[Red]\-&quot;Rs.&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -456,12 +668,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="2"/>
     </font>
@@ -496,12 +702,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -516,7 +716,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,8 +789,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -613,26 +825,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -644,9 +895,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,15 +933,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -714,13 +957,57 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1060,7 +1347,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1272,10 +1559,255 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11" style="26" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.85546875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="25">
+        <v>123</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="25">
+        <v>321</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="25">
+        <v>321</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="25">
+        <v>321</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="25">
+        <v>321</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="25">
+        <v>321</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="25">
+        <v>321</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="25">
+        <v>321</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="25">
+        <v>321</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="25">
+        <v>321</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="25">
+        <v>321</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="25">
+        <v>321</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="1.340551181102362" bottom="1.340551181102362" header="1.1437007874015748" footer="1.1437007874015748"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
@@ -1289,75 +1821,408 @@
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" customWidth="1"/>
+    <col min="30" max="30" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:30" ht="15">
+      <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="29" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="29">
+      <c r="K1" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="W1" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y1" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z1" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA1" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB1" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC1" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD1" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15.75">
+      <c r="A2" s="49">
         <v>917005</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="50">
+        <v>727</v>
+      </c>
+      <c r="E2" s="50">
+        <v>369</v>
+      </c>
+      <c r="F2" s="50">
+        <v>320</v>
+      </c>
+      <c r="G2" s="50">
+        <v>2</v>
+      </c>
+      <c r="H2" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="32">
+      <c r="J2" s="50">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="56">
+        <v>949677</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="50">
         <v>727</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E3" s="50">
         <v>369</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F3" s="50">
         <v>320</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G3" s="50">
         <v>2</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H3" s="50">
         <v>10000</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="32">
+      <c r="I3" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="50">
         <v>160</v>
+      </c>
+      <c r="K3" s="54">
+        <v>1</v>
+      </c>
+      <c r="L3" s="54">
+        <v>1234</v>
+      </c>
+      <c r="M3" s="54">
+        <v>1</v>
+      </c>
+      <c r="N3" s="54">
+        <v>11</v>
+      </c>
+      <c r="O3" s="54">
+        <v>11</v>
+      </c>
+      <c r="P3" s="54">
+        <v>999</v>
+      </c>
+      <c r="Q3" s="54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="59">
+        <v>817662</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="50">
+        <v>727</v>
+      </c>
+      <c r="E4" s="50">
+        <v>369</v>
+      </c>
+      <c r="F4" s="50">
+        <v>320</v>
+      </c>
+      <c r="G4" s="50">
+        <v>2</v>
+      </c>
+      <c r="H4" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="50">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="59">
+        <v>299886</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="50">
+        <v>727</v>
+      </c>
+      <c r="E5" s="50">
+        <v>369</v>
+      </c>
+      <c r="F5" s="50">
+        <v>320</v>
+      </c>
+      <c r="G5" s="50">
+        <v>2</v>
+      </c>
+      <c r="H5" s="50">
+        <v>10000</v>
+      </c>
+      <c r="R5">
+        <v>100</v>
+      </c>
+      <c r="S5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15">
+      <c r="A6" s="61">
+        <v>539219</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="50">
+        <v>727</v>
+      </c>
+      <c r="E6" s="50">
+        <v>369</v>
+      </c>
+      <c r="F6" s="50">
+        <v>320</v>
+      </c>
+      <c r="G6" s="50">
+        <v>2</v>
+      </c>
+      <c r="H6" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="50">
+        <v>160</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="62">
+        <v>1</v>
+      </c>
+      <c r="V6" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="W6" t="s">
+        <v>145</v>
+      </c>
+      <c r="X6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15">
+      <c r="A7" s="67">
+        <v>929306</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="50">
+        <v>727</v>
+      </c>
+      <c r="E7" s="50">
+        <v>369</v>
+      </c>
+      <c r="F7" s="50">
+        <v>320</v>
+      </c>
+      <c r="G7" s="50">
+        <v>2</v>
+      </c>
+      <c r="H7" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="62">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>5000</v>
+      </c>
+      <c r="AB7">
+        <v>98</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15">
+      <c r="A8" s="69">
+        <v>583228</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="50">
+        <v>727</v>
+      </c>
+      <c r="E8" s="50">
+        <v>369</v>
+      </c>
+      <c r="F8" s="50">
+        <v>320</v>
+      </c>
+      <c r="G8" s="50">
+        <v>2</v>
+      </c>
+      <c r="H8" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="50">
+        <v>160</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="62">
+        <v>1</v>
+      </c>
+      <c r="V8" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="W8" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="X8" s="62" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0830692913385827" bottom="1.0830692913385827" header="0.88582519685039363" footer="0.88582519685039363"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1365,7 +2230,412 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15">
+      <c r="A1" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15">
+      <c r="A2">
+        <v>172636</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" s="71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>127787</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="66">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>664435</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2">
+        <v>11235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>652870</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15">
+      <c r="A1" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="61">
+        <v>542234</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2">
+        <v>727</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>100.12</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15">
+      <c r="A1" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="45">
+        <v>669589</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="47">
+        <v>1399</v>
+      </c>
+      <c r="E2" s="47">
+        <v>1</v>
+      </c>
+      <c r="F2" s="47">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="45">
+        <v>2</v>
+      </c>
+      <c r="I2" s="47">
+        <v>10000</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -1375,61 +2645,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="35" customWidth="1"/>
-    <col min="2" max="3" width="14.5703125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="35" customWidth="1"/>
-    <col min="5" max="6" width="28.28515625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="35" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" style="35" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="42.28515625" style="35"/>
+    <col min="1" max="1" width="10.140625" style="31" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="31" customWidth="1"/>
+    <col min="5" max="6" width="28.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="42.28515625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="F1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="G1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="J1" s="30" t="s">
         <v>83</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>87</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -1442,78 +2712,78 @@
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="21"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="21"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="21"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="21"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="21"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -1537,7 +2807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1560,19 +2830,19 @@
       <c r="B1" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>91</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1">
       <c r="A2">
         <v>669589</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>90</v>
+      <c r="B2" s="43" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +3658,248 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="W46" sqref="W46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="25">
+        <v>123</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="25">
+        <v>321</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="25">
+        <v>321</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="25">
+        <v>321</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="25">
+        <v>321</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="25">
+        <v>321</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="25">
+        <v>321</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="25">
+        <v>321</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="25">
+        <v>321</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="25">
+        <v>321</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="25">
+        <v>321</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="25">
+        <v>321</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2419,7 +3930,7 @@
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>25</v>
@@ -2436,7 +3947,7 @@
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>27</v>
@@ -2453,7 +3964,7 @@
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>29</v>
@@ -2470,7 +3981,7 @@
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>31</v>
@@ -2487,7 +3998,7 @@
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>33</v>
@@ -2504,7 +4015,7 @@
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>35</v>
@@ -2521,7 +4032,7 @@
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>37</v>
@@ -2538,7 +4049,7 @@
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>39</v>
@@ -2555,7 +4066,7 @@
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>41</v>
@@ -2572,7 +4083,7 @@
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>43</v>
@@ -2589,7 +4100,7 @@
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>45</v>
@@ -2606,7 +4117,7 @@
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>47</v>
@@ -2626,11 +4137,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
@@ -2662,7 +4173,7 @@
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>25</v>
@@ -2679,7 +4190,7 @@
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>27</v>
@@ -2696,7 +4207,7 @@
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>29</v>
@@ -2713,7 +4224,7 @@
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>31</v>
@@ -2730,7 +4241,7 @@
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>33</v>
@@ -2747,7 +4258,7 @@
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>35</v>
@@ -2764,7 +4275,7 @@
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>37</v>
@@ -2781,7 +4292,7 @@
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>39</v>
@@ -2798,7 +4309,7 @@
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>41</v>
@@ -2815,7 +4326,7 @@
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>43</v>
@@ -2832,7 +4343,7 @@
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>45</v>
@@ -2849,7 +4360,7 @@
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>47</v>
@@ -2866,251 +4377,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11" style="26" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9.85546875" style="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="25">
-        <v>123</v>
-      </c>
-      <c r="D2" s="25">
-        <v>1</v>
-      </c>
-      <c r="E2" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="25">
-        <v>321</v>
-      </c>
-      <c r="D3" s="25">
-        <v>1</v>
-      </c>
-      <c r="E3" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="25">
-        <v>321</v>
-      </c>
-      <c r="D4" s="25">
-        <v>1</v>
-      </c>
-      <c r="E4" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="25">
-        <v>321</v>
-      </c>
-      <c r="D5" s="25">
-        <v>1</v>
-      </c>
-      <c r="E5" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="25">
-        <v>321</v>
-      </c>
-      <c r="D6" s="25">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="25">
-        <v>321</v>
-      </c>
-      <c r="D7" s="25">
-        <v>1</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="25">
-        <v>321</v>
-      </c>
-      <c r="D8" s="25">
-        <v>1</v>
-      </c>
-      <c r="E8" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="25">
-        <v>321</v>
-      </c>
-      <c r="D9" s="25">
-        <v>1</v>
-      </c>
-      <c r="E9" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="25">
-        <v>321</v>
-      </c>
-      <c r="D10" s="25">
-        <v>1</v>
-      </c>
-      <c r="E10" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="25">
-        <v>321</v>
-      </c>
-      <c r="D11" s="25">
-        <v>1</v>
-      </c>
-      <c r="E11" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="25">
-        <v>321</v>
-      </c>
-      <c r="D12" s="25">
-        <v>1</v>
-      </c>
-      <c r="E12" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="25">
-        <v>321</v>
-      </c>
-      <c r="D13" s="25">
-        <v>1</v>
-      </c>
-      <c r="E13" s="25">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.340551181102362" bottom="1.340551181102362" header="1.1437007874015748" footer="1.1437007874015748"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 

--- a/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
+++ b/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="195">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -609,6 +609,18 @@
   </si>
   <si>
     <t>IIS_User12</t>
+  </si>
+  <si>
+    <t>4336</t>
+  </si>
+  <si>
+    <t>4341</t>
+  </si>
+  <si>
+    <t>4343</t>
+  </si>
+  <si>
+    <t>4345</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1359,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1363,14 +1375,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="19.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="30.5703125" style="6"/>
+    <col min="1" max="1" customWidth="true" style="6" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="6" width="29.28515625" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="6" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="13" width="18.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="6" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="6" width="19.140625" collapsed="true"/>
+    <col min="9" max="16384" style="6" width="30.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1567,12 +1579,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11" style="26" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9.85546875" style="26"/>
+    <col min="1" max="1" customWidth="true" style="26" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="26" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="26" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="26" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="26" width="12.140625" collapsed="true"/>
+    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1812,24 +1824,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" customWidth="1"/>
-    <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" customWidth="1"/>
-    <col min="23" max="23" width="17.5703125" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" customWidth="1"/>
-    <col min="26" max="26" width="15.28515625" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" customWidth="1"/>
-    <col min="30" max="30" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="26.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15">
@@ -2240,18 +2252,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15">
@@ -2340,9 +2352,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -2383,10 +2395,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
@@ -2429,8 +2441,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -2471,15 +2483,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.45703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
@@ -2535,6 +2547,9 @@
       </c>
       <c r="H2">
         <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2553,16 +2568,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -2645,15 +2660,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="31" customWidth="1"/>
-    <col min="2" max="3" width="14.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="31" customWidth="1"/>
-    <col min="5" max="6" width="28.28515625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="42.28515625" style="31"/>
+    <col min="1" max="1" customWidth="true" style="31" width="10.140625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="31" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="31" width="15.28515625" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="31" width="28.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="31" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="31" width="28.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="31" width="28.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="31" width="27.28515625" collapsed="true"/>
+    <col min="11" max="16384" style="31" width="42.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">
@@ -2817,10 +2832,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1">
@@ -2861,10 +2876,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="130.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="130.140625" style="6"/>
+    <col min="1" max="1" customWidth="true" style="6" width="19.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="6" width="40.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="6" width="130.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2930,12 +2945,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="23" style="26" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9.85546875" style="26"/>
+    <col min="1" max="1" customWidth="true" style="26" width="19.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="26" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="26" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="26" width="29.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="26" width="36.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3173,12 +3188,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9.85546875" style="26"/>
+    <col min="1" max="1" customWidth="true" style="26" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="26" width="28.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="26" width="22.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="26" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="26" width="22.5703125" collapsed="true"/>
+    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3418,12 +3433,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11" style="26" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9.85546875" style="26"/>
+    <col min="1" max="1" customWidth="true" style="26" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="26" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="26" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="26" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="26" width="12.140625" collapsed="true"/>
+    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3663,9 +3678,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -3904,11 +3919,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -4147,11 +4162,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -4390,10 +4405,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="9.85546875" style="26"/>
+    <col min="1" max="1" customWidth="true" style="26" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="26" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="26" width="9.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="26" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
+++ b/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="209">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -611,16 +611,58 @@
     <t>IIS_User12</t>
   </si>
   <si>
-    <t>4336</t>
-  </si>
-  <si>
-    <t>4341</t>
-  </si>
-  <si>
-    <t>4343</t>
-  </si>
-  <si>
-    <t>4345</t>
+    <t>AT_RF_054</t>
+  </si>
+  <si>
+    <t>Customer Search Box</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>Moths In Tenure</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>Reason For Rejection</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Type Details</t>
+  </si>
+  <si>
+    <t>dq</t>
+  </si>
+  <si>
+    <t>Change Months in Tenure</t>
+  </si>
+  <si>
+    <t>AT_RF_055</t>
+  </si>
+  <si>
+    <t>ApplicationFor</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Existing Facility Ref</t>
+  </si>
+  <si>
+    <t>Total value on additional Details</t>
+  </si>
+  <si>
+    <t>Change Down Payment</t>
+  </si>
+  <si>
+    <t>AT_DDR_078</t>
   </si>
 </sst>
 </file>
@@ -814,7 +856,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -876,6 +918,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -895,7 +950,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1003,8 +1058,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1013,13 +1066,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1359,7 +1420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1375,14 +1436,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="6" width="20.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="6" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="6" width="29.28515625" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="6" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="13" width="18.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="6" width="16.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="6" width="19.140625" collapsed="true"/>
-    <col min="9" max="16384" style="6" width="30.5703125" collapsed="true"/>
+    <col min="1" max="1" width="20.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="19.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="30.5703125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1579,12 +1640,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="26" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="26" width="11.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="26" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="26" width="14.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="26" width="12.140625" collapsed="true"/>
-    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11" style="26" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.85546875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1816,35 +1877,39 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" customWidth="1"/>
+    <col min="30" max="30" width="28.28515625" customWidth="1"/>
+    <col min="31" max="31" width="15" customWidth="1"/>
+    <col min="32" max="32" width="19" customWidth="1"/>
+    <col min="33" max="33" width="34.42578125" customWidth="1"/>
+    <col min="34" max="34" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15">
+    <row r="1" spans="1:34" ht="15">
       <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
@@ -1935,8 +2000,20 @@
       <c r="AD1" s="52" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" ht="15.75">
+      <c r="AE1" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF1" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG1" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH1" s="52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="15.75">
       <c r="A2" s="49">
         <v>917005</v>
       </c>
@@ -1968,7 +2045,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:34">
       <c r="A3" s="56">
         <v>949677</v>
       </c>
@@ -2021,11 +2098,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="59">
+    <row r="4" spans="1:34">
+      <c r="A4" s="56">
         <v>817662</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="57" t="s">
         <v>135</v>
       </c>
       <c r="C4" s="50" t="s">
@@ -2053,11 +2130,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
-      <c r="A5" s="59">
+    <row r="5" spans="1:34">
+      <c r="A5" s="56">
         <v>299886</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="57" t="s">
         <v>136</v>
       </c>
       <c r="C5" s="50" t="s">
@@ -2085,11 +2162,11 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15">
-      <c r="A6" s="61">
+    <row r="6" spans="1:34" ht="15">
+      <c r="A6" s="56">
         <v>539219</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="69" t="s">
         <v>139</v>
       </c>
       <c r="C6" s="50" t="s">
@@ -2119,10 +2196,10 @@
       <c r="T6">
         <v>1</v>
       </c>
-      <c r="U6" s="62">
-        <v>1</v>
-      </c>
-      <c r="V6" s="62" t="s">
+      <c r="U6" s="60">
+        <v>1</v>
+      </c>
+      <c r="V6" s="60" t="s">
         <v>145</v>
       </c>
       <c r="W6" t="s">
@@ -2132,11 +2209,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15">
-      <c r="A7" s="67">
+    <row r="7" spans="1:34" ht="15">
+      <c r="A7" s="69">
         <v>929306</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="57" t="s">
         <v>154</v>
       </c>
       <c r="C7" s="50" t="s">
@@ -2163,7 +2240,7 @@
       <c r="T7">
         <v>1</v>
       </c>
-      <c r="U7" s="62">
+      <c r="U7" s="60">
         <v>1</v>
       </c>
       <c r="Y7">
@@ -2181,15 +2258,15 @@
       <c r="AC7">
         <v>2</v>
       </c>
-      <c r="AD7" s="62" t="s">
+      <c r="AD7" s="60" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15">
-      <c r="A8" s="69">
+    <row r="8" spans="1:34" ht="15">
+      <c r="A8" s="68">
         <v>583228</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="68" t="s">
         <v>167</v>
       </c>
       <c r="C8" s="50" t="s">
@@ -2219,17 +2296,76 @@
       <c r="T8">
         <v>1</v>
       </c>
-      <c r="U8" s="62">
-        <v>1</v>
-      </c>
-      <c r="V8" s="62" t="s">
+      <c r="U8" s="60">
+        <v>1</v>
+      </c>
+      <c r="V8" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="W8" s="62" t="s">
+      <c r="W8" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="X8" s="62" t="s">
+      <c r="X8" s="60" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="15">
+      <c r="A9" s="72">
+        <v>636898</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="50">
+        <v>727</v>
+      </c>
+      <c r="E9" s="50">
+        <v>369</v>
+      </c>
+      <c r="F9" s="50">
+        <v>320</v>
+      </c>
+      <c r="G9" s="50">
+        <v>2</v>
+      </c>
+      <c r="H9" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="50">
+        <v>160</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="60">
+        <v>1</v>
+      </c>
+      <c r="V9" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="W9" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="X9" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE9" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF9">
+        <v>1390</v>
+      </c>
+      <c r="AG9">
+        <v>10000</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2246,24 +2382,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15">
@@ -2273,31 +2409,31 @@
       <c r="B1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="62" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2305,34 +2441,34 @@
       <c r="A2">
         <v>172636</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="67" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2352,9 +2488,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -2372,10 +2508,10 @@
       <c r="A2">
         <v>127787</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="64">
         <v>221</v>
       </c>
     </row>
@@ -2395,10 +2531,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
@@ -2408,10 +2544,10 @@
       <c r="B1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="65" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2419,7 +2555,7 @@
       <c r="A2">
         <v>664435</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="60" t="s">
         <v>164</v>
       </c>
       <c r="D2">
@@ -2441,8 +2577,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -2452,7 +2588,7 @@
       <c r="B1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="65" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2460,7 +2596,7 @@
       <c r="A2">
         <v>652870</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="60" t="s">
         <v>165</v>
       </c>
       <c r="C2">
@@ -2483,15 +2619,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.45703125" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
@@ -2501,36 +2637,36 @@
       <c r="B1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="63" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="61">
+      <c r="A2" s="59">
         <v>542234</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="60" t="s">
         <v>151</v>
       </c>
       <c r="D2">
@@ -2547,9 +2683,6 @@
       </c>
       <c r="H2">
         <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2560,27 +2693,35 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:20" ht="15">
       <c r="A1" s="44" t="s">
         <v>64</v>
       </c>
@@ -2611,8 +2752,38 @@
       <c r="J1" s="55" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="R1" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="T1" s="71" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="45">
         <v>669589</v>
       </c>
@@ -2642,6 +2813,70 @@
       </c>
       <c r="J2" s="46" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15">
+      <c r="A3" s="59">
+        <v>636958</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3">
+        <v>727</v>
+      </c>
+      <c r="L3">
+        <v>221</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="S3" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15">
+      <c r="A4">
+        <v>1039018</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4">
+        <v>727</v>
+      </c>
+      <c r="L4">
+        <v>221</v>
+      </c>
+      <c r="M4">
+        <v>1000</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2660,15 +2895,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="31" width="10.140625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="31" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="31" width="15.28515625" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="31" width="28.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="31" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="31" width="28.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="31" width="28.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="31" width="27.28515625" collapsed="true"/>
-    <col min="11" max="16384" style="31" width="42.28515625" collapsed="true"/>
+    <col min="1" max="1" width="10.140625" style="31" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="31" customWidth="1"/>
+    <col min="5" max="6" width="28.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="42.28515625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">
@@ -2832,10 +3067,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1">
@@ -2876,10 +3111,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="130.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="6" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="6" width="40.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="6" width="130.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="130.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2945,12 +3180,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="26" width="19.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="26" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="26" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="26" width="29.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="26" width="36.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="23" style="26" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.85546875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3188,12 +3423,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="26" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="26" width="28.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="26" width="22.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="26" width="19.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="26" width="22.5703125" collapsed="true"/>
-    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.85546875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3433,12 +3668,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="26" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="26" width="11.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="26" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="26" width="14.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="26" width="12.140625" collapsed="true"/>
-    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11" style="26" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.85546875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3678,9 +3913,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -3919,11 +4154,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -4162,11 +4397,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -4405,10 +4640,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="26" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="26" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="26" width="9.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="26" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="9.85546875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
+++ b/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="3" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="3" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,20 @@
     <sheet name="Facility_Management_Under_WIFAK" sheetId="18" r:id="rId12"/>
     <sheet name="Facility_Type" sheetId="15" r:id="rId13"/>
     <sheet name="Baj Application" sheetId="16" r:id="rId14"/>
-    <sheet name="Collateral Management" sheetId="17" r:id="rId15"/>
-    <sheet name="Request" sheetId="14" r:id="rId16"/>
-    <sheet name=" REQUEST_FOR_FINANCIN " sheetId="13" r:id="rId17"/>
-    <sheet name="TestExecution" sheetId="9" r:id="rId18"/>
-    <sheet name="ReqRequest for financing" sheetId="10" r:id="rId19"/>
+    <sheet name="Collateral Type" sheetId="21" r:id="rId15"/>
+    <sheet name="Collateral Management" sheetId="17" r:id="rId16"/>
+    <sheet name="Request" sheetId="14" r:id="rId17"/>
+    <sheet name="Financial_Indicators" sheetId="20" r:id="rId18"/>
+    <sheet name=" REQUEST_FOR_FINANCIN " sheetId="13" r:id="rId19"/>
+    <sheet name="TestExecution" sheetId="9" r:id="rId20"/>
+    <sheet name="ReqRequest for financing" sheetId="10" r:id="rId21"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="236">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -663,6 +665,87 @@
   </si>
   <si>
     <t>AT_DDR_078</t>
+  </si>
+  <si>
+    <t>AT_FP_035</t>
+  </si>
+  <si>
+    <t>dtr</t>
+  </si>
+  <si>
+    <t>AT_FP_010</t>
+  </si>
+  <si>
+    <t>Check CodeAlp</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>AT_CM_037</t>
+  </si>
+  <si>
+    <t>brief Description</t>
+  </si>
+  <si>
+    <t>long Description</t>
+  </si>
+  <si>
+    <t>Enter First Empty Field</t>
+  </si>
+  <si>
+    <t>Enter Second Empty Field</t>
+  </si>
+  <si>
+    <t>Enter Facility Coverage</t>
+  </si>
+  <si>
+    <t>Select assert type</t>
+  </si>
+  <si>
+    <t>Search Record in Approve</t>
+  </si>
+  <si>
+    <t>Update the brief Description</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Vechile</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Vechiles</t>
+  </si>
+  <si>
+    <t>AT_CM_039</t>
+  </si>
+  <si>
+    <t>Collateral Type</t>
+  </si>
+  <si>
+    <t>Valid From Date</t>
+  </si>
+  <si>
+    <t>Valid To Date</t>
+  </si>
+  <si>
+    <t>Brief Description</t>
+  </si>
+  <si>
+    <t>16/01/2021</t>
+  </si>
+  <si>
+    <t>Long Description</t>
+  </si>
+  <si>
+    <t>Collateral Currency</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -856,7 +939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -931,6 +1014,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -950,7 +1046,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1081,6 +1177,12 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -2569,38 +2671,94 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="65" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
-        <v>652870</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>165</v>
+        <v>127727</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>942</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2">
+        <v>942</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2611,10 +2769,115 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15">
+      <c r="A1" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="45">
+        <v>652870</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="45">
+        <v>8</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="45">
+        <v>127735</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45">
+        <v>564</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" s="45">
+        <v>840</v>
+      </c>
+      <c r="J3" s="45">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2691,11 +2954,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="45">
+        <v>586488</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="45">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="45">
+        <v>586449</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2885,7 +3210,76 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="130.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="130.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30">
+      <c r="A2" s="19"/>
+      <c r="B2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="20"/>
+      <c r="B3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="21"/>
+      <c r="B4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="22"/>
+      <c r="B5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="7.2433070866141733" bottom="7.2433070866141733" header="7.0464566929133854" footer="7.0464566929133854"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -3057,7 +3451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3098,75 +3492,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="130.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="130.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30">
-      <c r="A2" s="19"/>
-      <c r="B2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="20"/>
-      <c r="B3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="21"/>
-      <c r="B4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="22"/>
-      <c r="B5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="7.2433070866141733" bottom="7.2433070866141733" header="7.0464566929133854" footer="7.0464566929133854"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 

--- a/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
+++ b/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="3" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,21 @@
     <sheet name="Facility_Management_Under_WIFAK" sheetId="18" r:id="rId12"/>
     <sheet name="Facility_Type" sheetId="15" r:id="rId13"/>
     <sheet name="Baj Application" sheetId="16" r:id="rId14"/>
-    <sheet name="Collateral Type" sheetId="21" r:id="rId15"/>
-    <sheet name="Collateral Management" sheetId="17" r:id="rId16"/>
-    <sheet name="Request" sheetId="14" r:id="rId17"/>
-    <sheet name="Financial_Indicators" sheetId="20" r:id="rId18"/>
-    <sheet name=" REQUEST_FOR_FINANCIN " sheetId="13" r:id="rId19"/>
-    <sheet name="TestExecution" sheetId="9" r:id="rId20"/>
-    <sheet name="ReqRequest for financing" sheetId="10" r:id="rId21"/>
+    <sheet name="Batch MTS" sheetId="22" r:id="rId15"/>
+    <sheet name="Collateral Type" sheetId="21" r:id="rId16"/>
+    <sheet name="Collateral Management" sheetId="17" r:id="rId17"/>
+    <sheet name="Request" sheetId="14" r:id="rId18"/>
+    <sheet name="Financial_Indicators" sheetId="20" r:id="rId19"/>
+    <sheet name=" REQUEST_FOR_FINANCIN " sheetId="13" r:id="rId20"/>
+    <sheet name="TestExecution" sheetId="9" r:id="rId21"/>
+    <sheet name="ReqRequest for financing" sheetId="10" r:id="rId22"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="290">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -640,9 +641,6 @@
     <t>Type Details</t>
   </si>
   <si>
-    <t>dq</t>
-  </si>
-  <si>
     <t>Change Months in Tenure</t>
   </si>
   <si>
@@ -746,6 +744,171 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>AT_RF_148</t>
+  </si>
+  <si>
+    <t>Brief Name</t>
+  </si>
+  <si>
+    <t>Long Name</t>
+  </si>
+  <si>
+    <t>Menu Reference</t>
+  </si>
+  <si>
+    <t>Select batch Periodicity</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>Test Testing</t>
+  </si>
+  <si>
+    <t>testingg</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>AT_RF_150</t>
+  </si>
+  <si>
+    <t>Decision in approve level1</t>
+  </si>
+  <si>
+    <t>Approve Commite after Decision</t>
+  </si>
+  <si>
+    <t>Select approve Commite selectIC</t>
+  </si>
+  <si>
+    <t>Approval Committee</t>
+  </si>
+  <si>
+    <t>Investment Committee</t>
+  </si>
+  <si>
+    <t>AT_RF_149</t>
+  </si>
+  <si>
+    <t>Select oneOff inFacility Type Details</t>
+  </si>
+  <si>
+    <t>One-Off</t>
+  </si>
+  <si>
+    <t>DrawDown Type</t>
+  </si>
+  <si>
+    <t>Description English</t>
+  </si>
+  <si>
+    <t>Description Date</t>
+  </si>
+  <si>
+    <t>Product ClassLN</t>
+  </si>
+  <si>
+    <t>FC Ammount</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>25/05/2024</t>
+  </si>
+  <si>
+    <t>Down Payment to Vendor Percentage</t>
+  </si>
+  <si>
+    <t>Comment Code</t>
+  </si>
+  <si>
+    <t>Select approve In recommendaion</t>
+  </si>
+  <si>
+    <t>AT_FM_073</t>
+  </si>
+  <si>
+    <t>Select Raison de Soumission in french</t>
+  </si>
+  <si>
+    <t>Nouvelle demande</t>
+  </si>
+  <si>
+    <t>CheckFirst filed in french</t>
+  </si>
+  <si>
+    <t>Détails de la demande</t>
+  </si>
+  <si>
+    <t>CheckSecond filed in french</t>
+  </si>
+  <si>
+    <t>Recommandations et Classement du Client</t>
+  </si>
+  <si>
+    <t>AT_FM_107</t>
+  </si>
+  <si>
+    <t>AT_FM_077</t>
+  </si>
+  <si>
+    <t>Check the Status in maintaince</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Check Status In Query</t>
+  </si>
+  <si>
+    <t>Reversed</t>
+  </si>
+  <si>
+    <t>AT_FM_108</t>
+  </si>
+  <si>
+    <t>AT_FM_023</t>
+  </si>
+  <si>
+    <t>Change Total limit</t>
+  </si>
+  <si>
+    <t>Select Reason Modification Reason</t>
+  </si>
+  <si>
+    <t>Text Reason Modification Reason</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>AT_DDR_076</t>
+  </si>
+  <si>
+    <t>Down Payment to Vendor Percentage in Request for financing</t>
+  </si>
+  <si>
+    <t>AT_DDR_077</t>
+  </si>
+  <si>
+    <t>1039018_2</t>
+  </si>
+  <si>
+    <t>Testt</t>
+  </si>
+  <si>
+    <t>AT_DDR_079</t>
+  </si>
+  <si>
+    <t>SearchStatus</t>
+  </si>
+  <si>
+    <t>AT_CA_025</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1209,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1183,6 +1346,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1979,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AT17"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
@@ -2009,9 +2195,21 @@
     <col min="32" max="32" width="19" customWidth="1"/>
     <col min="33" max="33" width="34.42578125" customWidth="1"/>
     <col min="34" max="34" width="25.85546875" customWidth="1"/>
+    <col min="35" max="35" width="34.42578125" customWidth="1"/>
+    <col min="36" max="36" width="18" customWidth="1"/>
+    <col min="37" max="37" width="19.140625" customWidth="1"/>
+    <col min="38" max="38" width="16.140625" customWidth="1"/>
+    <col min="39" max="39" width="16.85546875" customWidth="1"/>
+    <col min="40" max="40" width="13.7109375" customWidth="1"/>
+    <col min="41" max="41" width="42.5703125" customWidth="1"/>
+    <col min="42" max="42" width="15.28515625" customWidth="1"/>
+    <col min="43" max="43" width="29.28515625" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" customWidth="1"/>
+    <col min="45" max="45" width="33.42578125" customWidth="1"/>
+    <col min="46" max="46" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:46" ht="15">
       <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
@@ -2103,19 +2301,55 @@
         <v>161</v>
       </c>
       <c r="AE1" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF1" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG1" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="AG1" s="52" t="s">
+      <c r="AH1" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="AH1" s="52" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="15.75">
+      <c r="AI1" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ1" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK1" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL1" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM1" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN1" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO1" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="AP1" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="AQ1" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="AR1" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="AS1" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT1" s="60" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" ht="15.75">
       <c r="A2" s="49">
         <v>917005</v>
       </c>
@@ -2129,7 +2363,7 @@
         <v>727</v>
       </c>
       <c r="E2" s="50">
-        <v>369</v>
+        <v>9001</v>
       </c>
       <c r="F2" s="50">
         <v>320</v>
@@ -2147,7 +2381,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:46">
       <c r="A3" s="56">
         <v>949677</v>
       </c>
@@ -2161,7 +2395,7 @@
         <v>727</v>
       </c>
       <c r="E3" s="50">
-        <v>369</v>
+        <v>9001</v>
       </c>
       <c r="F3" s="50">
         <v>320</v>
@@ -2200,7 +2434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:46">
       <c r="A4" s="56">
         <v>817662</v>
       </c>
@@ -2214,7 +2448,7 @@
         <v>727</v>
       </c>
       <c r="E4" s="50">
-        <v>369</v>
+        <v>9001</v>
       </c>
       <c r="F4" s="50">
         <v>320</v>
@@ -2232,7 +2466,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:46">
       <c r="A5" s="56">
         <v>299886</v>
       </c>
@@ -2246,7 +2480,7 @@
         <v>727</v>
       </c>
       <c r="E5" s="50">
-        <v>369</v>
+        <v>9001</v>
       </c>
       <c r="F5" s="50">
         <v>320</v>
@@ -2264,7 +2498,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:46" ht="15">
       <c r="A6" s="56">
         <v>539219</v>
       </c>
@@ -2278,7 +2512,7 @@
         <v>727</v>
       </c>
       <c r="E6" s="50">
-        <v>369</v>
+        <v>9001</v>
       </c>
       <c r="F6" s="50">
         <v>320</v>
@@ -2310,8 +2544,14 @@
       <c r="X6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" ht="15">
+      <c r="AO6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" ht="15">
       <c r="A7" s="69">
         <v>929306</v>
       </c>
@@ -2325,7 +2565,7 @@
         <v>727</v>
       </c>
       <c r="E7" s="50">
-        <v>369</v>
+        <v>9001</v>
       </c>
       <c r="F7" s="50">
         <v>320</v>
@@ -2364,7 +2604,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:46" ht="15">
       <c r="A8" s="68">
         <v>583228</v>
       </c>
@@ -2378,7 +2618,7 @@
         <v>727</v>
       </c>
       <c r="E8" s="50">
-        <v>369</v>
+        <v>9001</v>
       </c>
       <c r="F8" s="50">
         <v>320</v>
@@ -2411,12 +2651,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="15">
+    <row r="9" spans="1:46" ht="15">
       <c r="A9" s="72">
         <v>636898</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="50" t="s">
         <v>74</v>
@@ -2425,7 +2665,7 @@
         <v>727</v>
       </c>
       <c r="E9" s="50">
-        <v>369</v>
+        <v>9001</v>
       </c>
       <c r="F9" s="50">
         <v>320</v>
@@ -2458,7 +2698,7 @@
         <v>168</v>
       </c>
       <c r="AE9" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF9">
         <v>1390</v>
@@ -2468,6 +2708,367 @@
       </c>
       <c r="AH9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="15">
+      <c r="A10" s="72">
+        <v>748962</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="50">
+        <v>727</v>
+      </c>
+      <c r="E10" s="50">
+        <v>9001</v>
+      </c>
+      <c r="F10" s="50">
+        <v>320</v>
+      </c>
+      <c r="G10" s="50">
+        <v>2</v>
+      </c>
+      <c r="H10" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="50">
+        <v>160</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="60">
+        <v>1</v>
+      </c>
+      <c r="V10" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="W10" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="X10" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL10" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" ht="15">
+      <c r="A11" s="81">
+        <v>824257</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="50">
+        <v>727</v>
+      </c>
+      <c r="E11" s="50">
+        <v>9001</v>
+      </c>
+      <c r="F11" s="50">
+        <v>320</v>
+      </c>
+      <c r="G11" s="50">
+        <v>2</v>
+      </c>
+      <c r="H11" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="50">
+        <v>160</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="60">
+        <v>1</v>
+      </c>
+      <c r="V11" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="W11" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="X11" s="60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" ht="15">
+      <c r="A12" s="72">
+        <v>403177</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL12" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1000</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR12" s="60" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" ht="15">
+      <c r="A13" s="81">
+        <v>349582</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="50">
+        <v>727</v>
+      </c>
+      <c r="E13" s="50">
+        <v>9001</v>
+      </c>
+      <c r="F13" s="50">
+        <v>320</v>
+      </c>
+      <c r="G13" s="50">
+        <v>2</v>
+      </c>
+      <c r="H13" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="50">
+        <v>160</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13" s="60">
+        <v>1</v>
+      </c>
+      <c r="V13" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="W13" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="X13" s="60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46">
+      <c r="A14" s="72">
+        <v>1038989</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="50">
+        <v>727</v>
+      </c>
+      <c r="E14" s="50">
+        <v>9001</v>
+      </c>
+      <c r="F14" s="50">
+        <v>320</v>
+      </c>
+      <c r="G14" s="50">
+        <v>2</v>
+      </c>
+      <c r="H14" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS14">
+        <v>10</v>
+      </c>
+      <c r="AT14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" ht="15">
+      <c r="A15" s="84">
+        <v>1039017</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="50">
+        <v>727</v>
+      </c>
+      <c r="E15" s="50">
+        <v>9001</v>
+      </c>
+      <c r="F15" s="50">
+        <v>320</v>
+      </c>
+      <c r="G15" s="50">
+        <v>2</v>
+      </c>
+      <c r="H15" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="50">
+        <v>160</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" s="60">
+        <v>1</v>
+      </c>
+      <c r="V15" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="W15" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" ht="15">
+      <c r="A16" s="72">
+        <v>1039018</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="50">
+        <v>727</v>
+      </c>
+      <c r="E16" s="50">
+        <v>9001</v>
+      </c>
+      <c r="F16" s="50">
+        <v>320</v>
+      </c>
+      <c r="G16" s="50">
+        <v>2</v>
+      </c>
+      <c r="H16" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="50">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="15">
+      <c r="A17" s="73">
+        <v>1265140</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="50">
+        <v>727</v>
+      </c>
+      <c r="E17" s="50">
+        <v>9001</v>
+      </c>
+      <c r="F17" s="50">
+        <v>320</v>
+      </c>
+      <c r="G17" s="50">
+        <v>2</v>
+      </c>
+      <c r="H17" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="50">
+        <v>160</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" s="60">
+        <v>1</v>
+      </c>
+      <c r="V17" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="W17" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="X17" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE17" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF17">
+        <v>1390</v>
+      </c>
+      <c r="AG17">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -2482,16 +3083,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
@@ -2501,10 +3101,10 @@
     <col min="9" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
@@ -2538,8 +3138,11 @@
       <c r="K1" s="62" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15">
+      <c r="L1" s="62" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15">
       <c r="A2">
         <v>172636</v>
       </c>
@@ -2572,6 +3175,17 @@
       </c>
       <c r="K2" s="67" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3">
+        <v>1039019</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2585,7 +3199,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2671,6 +3285,76 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="70">
+        <v>749102</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2699,31 +3383,31 @@
         <v>65</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D1" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="F1" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="G1" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="H1" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="I1" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="J1" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="K1" s="53" t="s">
         <v>221</v>
-      </c>
-      <c r="K1" s="53" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2731,34 +3415,34 @@
         <v>127727</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2">
         <v>942</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J2">
         <v>942</v>
       </c>
       <c r="K2" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2767,11 +3451,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -2797,25 +3481,25 @@
         <v>166</v>
       </c>
       <c r="D1" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="F1" s="77" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="G1" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="77" t="s">
-        <v>231</v>
-      </c>
       <c r="H1" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="J1" s="77" t="s">
         <v>234</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2841,23 +3525,23 @@
         <v>127735</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="45">
         <v>564</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F3" s="76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I3" s="45">
         <v>840</v>
@@ -2872,12 +3556,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2891,9 +3575,16 @@
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
@@ -2921,8 +3612,29 @@
       <c r="I1" s="63" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="K1" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="O1" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="P1" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="59">
         <v>542234</v>
       </c>
@@ -2946,6 +3658,43 @@
       </c>
       <c r="H2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15">
+      <c r="A3" s="72">
+        <v>749155</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15">
+      <c r="A4">
+        <v>570417</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4">
+        <v>4445</v>
+      </c>
+      <c r="N4">
+        <v>5000</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="P4" s="60" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2954,7 +3703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2978,10 +3727,10 @@
         <v>65</v>
       </c>
       <c r="C1" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="65" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2989,10 +3738,10 @@
         <v>586488</v>
       </c>
       <c r="B2" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>209</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>210</v>
       </c>
       <c r="D2" s="45">
         <v>654</v>
@@ -3003,204 +3752,10 @@
         <v>586449</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="45">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" customWidth="1"/>
-    <col min="20" max="20" width="25.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="15">
-      <c r="A1" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="L1" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="N1" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="P1" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q1" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="R1" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="S1" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="T1" s="71" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="45">
-        <v>669589</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="47">
-        <v>1399</v>
-      </c>
-      <c r="E2" s="47">
-        <v>1</v>
-      </c>
-      <c r="F2" s="47">
-        <v>2000</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="45">
-        <v>2</v>
-      </c>
-      <c r="I2" s="47">
-        <v>10000</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15">
-      <c r="A3" s="59">
-        <v>636958</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3">
-        <v>727</v>
-      </c>
-      <c r="L3">
-        <v>221</v>
-      </c>
-      <c r="M3">
-        <v>1000</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>12</v>
-      </c>
-      <c r="P3" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="S3" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="T3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15">
-      <c r="A4">
-        <v>1039018</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="K4">
-        <v>727</v>
-      </c>
-      <c r="L4">
-        <v>221</v>
-      </c>
-      <c r="M4">
-        <v>1000</v>
-      </c>
-      <c r="N4">
         <v>1</v>
       </c>
     </row>
@@ -3281,6 +3836,249 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" customWidth="1"/>
+    <col min="21" max="21" width="37" customWidth="1"/>
+    <col min="22" max="22" width="27.140625" customWidth="1"/>
+    <col min="23" max="23" width="37.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15">
+      <c r="A1" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="R1" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="T1" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="U1" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="V1" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="W1" s="65" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="45">
+        <v>669589</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="47">
+        <v>1399</v>
+      </c>
+      <c r="E2" s="47">
+        <v>1</v>
+      </c>
+      <c r="F2" s="47">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="45">
+        <v>2</v>
+      </c>
+      <c r="I2" s="47">
+        <v>10000</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15">
+      <c r="A3" s="59">
+        <v>636958</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3">
+        <v>727</v>
+      </c>
+      <c r="L3">
+        <v>221</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="S3" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15">
+      <c r="A4">
+        <v>1039018</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4">
+        <v>727</v>
+      </c>
+      <c r="L4">
+        <v>221</v>
+      </c>
+      <c r="M4">
+        <v>1000</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15">
+      <c r="A5">
+        <v>403133</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="U5" t="s">
+        <v>265</v>
+      </c>
+      <c r="V5" t="s">
+        <v>267</v>
+      </c>
+      <c r="W5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="80" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6">
+        <v>727</v>
+      </c>
+      <c r="L6">
+        <v>221</v>
+      </c>
+      <c r="M6">
+        <v>1000</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3451,7 +4249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>

--- a/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
+++ b/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,18 @@
     <sheet name="Collateral Type" sheetId="21" r:id="rId16"/>
     <sheet name="Collateral Management" sheetId="17" r:id="rId17"/>
     <sheet name="Request" sheetId="14" r:id="rId18"/>
-    <sheet name="Financial_Indicators" sheetId="20" r:id="rId19"/>
-    <sheet name=" REQUEST_FOR_FINANCIN " sheetId="13" r:id="rId20"/>
-    <sheet name="TestExecution" sheetId="9" r:id="rId21"/>
-    <sheet name="ReqRequest for financing" sheetId="10" r:id="rId22"/>
+    <sheet name="Params_Facility" sheetId="23" r:id="rId19"/>
+    <sheet name="Financial_Indicators" sheetId="20" r:id="rId20"/>
+    <sheet name=" REQUEST_FOR_FINANCIN " sheetId="13" r:id="rId21"/>
+    <sheet name="TestExecution" sheetId="9" r:id="rId22"/>
+    <sheet name="ReqRequest for financing" sheetId="10" r:id="rId23"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="304">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -909,6 +910,48 @@
   </si>
   <si>
     <t>AT_CA_025</t>
+  </si>
+  <si>
+    <t>AT_FALC_001</t>
+  </si>
+  <si>
+    <t>AT_IFO_001</t>
+  </si>
+  <si>
+    <t>Authorize / Reject</t>
+  </si>
+  <si>
+    <t>AT_IFO_002</t>
+  </si>
+  <si>
+    <t>Enter Floating Rate</t>
+  </si>
+  <si>
+    <t>Enter Floating Rate Periodicity</t>
+  </si>
+  <si>
+    <t>Enter Floating Rate Periodicity Months</t>
+  </si>
+  <si>
+    <t>AT_IFO_003</t>
+  </si>
+  <si>
+    <t>AT_CR_001</t>
+  </si>
+  <si>
+    <t>AT_CA_024</t>
+  </si>
+  <si>
+    <t>credit Committee Recommendations</t>
+  </si>
+  <si>
+    <t>AT_RF_022_D1</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>89</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1252,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1369,6 +1412,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1708,7 +1754,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1724,14 +1770,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="19.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="30.5703125" style="6"/>
+    <col min="1" max="1" customWidth="true" style="6" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="6" width="29.28515625" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="6" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="13" width="18.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="6" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="6" width="19.140625" collapsed="true"/>
+    <col min="9" max="16384" style="6" width="30.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1928,12 +1974,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11" style="26" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9.85546875" style="26"/>
+    <col min="1" max="1" customWidth="true" style="26" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="26" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="26" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="26" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="26" width="12.140625" collapsed="true"/>
+    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2165,51 +2211,54 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT17"/>
+  <dimension ref="A1:AW21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="AT1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="AW17" sqref="AW17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" customWidth="1"/>
-    <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" customWidth="1"/>
-    <col min="23" max="23" width="17.5703125" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" customWidth="1"/>
-    <col min="26" max="26" width="15.28515625" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" customWidth="1"/>
-    <col min="30" max="30" width="28.28515625" customWidth="1"/>
-    <col min="31" max="31" width="15" customWidth="1"/>
-    <col min="32" max="32" width="19" customWidth="1"/>
-    <col min="33" max="33" width="34.42578125" customWidth="1"/>
-    <col min="34" max="34" width="25.85546875" customWidth="1"/>
-    <col min="35" max="35" width="34.42578125" customWidth="1"/>
-    <col min="36" max="36" width="18" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" customWidth="1"/>
-    <col min="38" max="38" width="16.140625" customWidth="1"/>
-    <col min="39" max="39" width="16.85546875" customWidth="1"/>
-    <col min="40" max="40" width="13.7109375" customWidth="1"/>
-    <col min="41" max="41" width="42.5703125" customWidth="1"/>
-    <col min="42" max="42" width="15.28515625" customWidth="1"/>
-    <col min="43" max="43" width="29.28515625" customWidth="1"/>
-    <col min="44" max="44" width="23.28515625" customWidth="1"/>
-    <col min="45" max="45" width="33.42578125" customWidth="1"/>
-    <col min="46" max="46" width="59" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="42.5703125" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="59.0" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="34.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15">
+    <row r="1" spans="1:49" ht="15">
       <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
@@ -2348,8 +2397,17 @@
       <c r="AT1" s="60" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" ht="15.75">
+      <c r="AU1" s="60" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV1" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW1" s="60" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="15.75">
       <c r="A2" s="49">
         <v>917005</v>
       </c>
@@ -2381,7 +2439,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:49">
       <c r="A3" s="56">
         <v>949677</v>
       </c>
@@ -2434,7 +2492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:49">
       <c r="A4" s="56">
         <v>817662</v>
       </c>
@@ -2466,7 +2524,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:49">
       <c r="A5" s="56">
         <v>299886</v>
       </c>
@@ -2498,7 +2556,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="15">
+    <row r="6" spans="1:49" ht="15">
       <c r="A6" s="56">
         <v>539219</v>
       </c>
@@ -2551,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="15">
+    <row r="7" spans="1:49" ht="15">
       <c r="A7" s="69">
         <v>929306</v>
       </c>
@@ -2604,7 +2662,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="15">
+    <row r="8" spans="1:49" ht="15">
       <c r="A8" s="68">
         <v>583228</v>
       </c>
@@ -2651,7 +2709,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="15">
+    <row r="9" spans="1:49" ht="15">
       <c r="A9" s="72">
         <v>636898</v>
       </c>
@@ -2710,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="15">
+    <row r="10" spans="1:49" ht="15">
       <c r="A10" s="72">
         <v>748962</v>
       </c>
@@ -2775,7 +2833,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="15">
+    <row r="11" spans="1:49" ht="15">
       <c r="A11" s="81">
         <v>824257</v>
       </c>
@@ -2822,7 +2880,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="15">
+    <row r="12" spans="1:49" ht="15">
       <c r="A12" s="72">
         <v>403177</v>
       </c>
@@ -2851,7 +2909,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="15">
+    <row r="13" spans="1:49" ht="15">
       <c r="A13" s="81">
         <v>349582</v>
       </c>
@@ -2898,7 +2956,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:49">
       <c r="A14" s="72">
         <v>1038989</v>
       </c>
@@ -2933,7 +2991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="15">
+    <row r="15" spans="1:49" ht="15">
       <c r="A15" s="84">
         <v>1039017</v>
       </c>
@@ -2983,7 +3041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="15">
+    <row r="16" spans="1:49" ht="15">
       <c r="A16" s="72">
         <v>1039018</v>
       </c>
@@ -3015,7 +3073,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15">
+    <row r="17" spans="1:49" ht="15">
       <c r="A17" s="73">
         <v>1265140</v>
       </c>
@@ -3069,6 +3127,203 @@
       </c>
       <c r="AG17">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" ht="15">
+      <c r="A18">
+        <v>899818</v>
+      </c>
+      <c r="B18" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="50">
+        <v>727</v>
+      </c>
+      <c r="E18" s="50">
+        <v>9001</v>
+      </c>
+      <c r="F18" s="50">
+        <v>320</v>
+      </c>
+      <c r="G18" s="50">
+        <v>2</v>
+      </c>
+      <c r="H18" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I18" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="50">
+        <v>160</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18" s="60">
+        <v>1</v>
+      </c>
+      <c r="V18" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="W18" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="X18" s="60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" ht="15">
+      <c r="A19" s="70">
+        <v>127912</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="50">
+        <v>727</v>
+      </c>
+      <c r="E19" s="50">
+        <v>9001</v>
+      </c>
+      <c r="F19" s="50">
+        <v>320</v>
+      </c>
+      <c r="G19" s="50">
+        <v>2</v>
+      </c>
+      <c r="H19" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I19" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="50">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19" s="60">
+        <v>1</v>
+      </c>
+      <c r="V19" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="W19" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="X19" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU19">
+        <v>98</v>
+      </c>
+      <c r="AV19">
+        <v>2</v>
+      </c>
+      <c r="AW19" s="60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" ht="15">
+      <c r="A20">
+        <v>135014</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="50">
+        <v>727</v>
+      </c>
+      <c r="E20" s="50">
+        <v>9001</v>
+      </c>
+      <c r="F20" s="50">
+        <v>320</v>
+      </c>
+      <c r="G20" s="50">
+        <v>2</v>
+      </c>
+      <c r="H20" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I20" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="50">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20" s="60">
+        <v>1</v>
+      </c>
+      <c r="V20" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="W20" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="X20" s="60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" ht="15">
+      <c r="A21" s="70">
+        <v>733338</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="50">
+        <v>727</v>
+      </c>
+      <c r="E21" s="50">
+        <v>9001</v>
+      </c>
+      <c r="F21" s="50">
+        <v>320</v>
+      </c>
+      <c r="G21" s="50">
+        <v>2</v>
+      </c>
+      <c r="H21" s="50">
+        <v>10000</v>
+      </c>
+      <c r="I21" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="50">
+        <v>160</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21" s="60">
+        <v>1</v>
+      </c>
+      <c r="V21" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="W21" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="X21" s="60" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3091,17 +3346,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15">
@@ -3204,9 +3459,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -3241,16 +3496,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.79296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
@@ -3268,13 +3523,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>664435</v>
-      </c>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D2">
+      <c r="B2" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="89">
         <v>11235</v>
       </c>
     </row>
@@ -3293,13 +3551,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
@@ -3363,16 +3621,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15">
@@ -3461,13 +3719,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -3558,33 +3816,34 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="33.140625" customWidth="1"/>
-    <col min="16" max="16" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="34.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:17" ht="15">
       <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
@@ -3633,8 +3892,11 @@
       <c r="P1" s="62" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="62" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="59">
         <v>542234</v>
       </c>
@@ -3660,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:17" ht="15">
       <c r="A3" s="72">
         <v>749155</v>
       </c>
@@ -3677,7 +3939,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:17" ht="15">
       <c r="A4">
         <v>570417</v>
       </c>
@@ -3695,6 +3957,70 @@
       </c>
       <c r="P4" s="60" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15">
+      <c r="A5">
+        <v>853171</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5">
+        <v>727</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>10000</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15">
+      <c r="A6">
+        <v>1265139</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6">
+        <v>727</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>10000</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" t="s">
+        <v>248</v>
+      </c>
+      <c r="L6" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3705,63 +4031,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="45">
-        <v>586488</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="45">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="45">
-        <v>586449</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3775,10 +4051,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="130.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="130.140625" style="6"/>
+    <col min="1" max="1" customWidth="true" style="6" width="19.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="6" width="40.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="6" width="130.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3836,238 +4112,57 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" customWidth="1"/>
-    <col min="20" max="20" width="25.140625" customWidth="1"/>
-    <col min="21" max="21" width="37" customWidth="1"/>
-    <col min="22" max="22" width="27.140625" customWidth="1"/>
-    <col min="23" max="23" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="L1" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="N1" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="P1" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q1" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="R1" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="S1" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="T1" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="U1" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="V1" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="W1" s="65" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="C1" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="45">
-        <v>669589</v>
+        <v>586488</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="47">
-        <v>1399</v>
-      </c>
-      <c r="E2" s="47">
-        <v>1</v>
-      </c>
-      <c r="F2" s="47">
-        <v>2000</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="45">
-        <v>2</v>
-      </c>
-      <c r="I2" s="47">
-        <v>10000</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="15">
-      <c r="A3" s="59">
-        <v>636958</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3">
-        <v>727</v>
-      </c>
-      <c r="L3">
-        <v>221</v>
-      </c>
-      <c r="M3">
-        <v>1000</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>12</v>
-      </c>
-      <c r="P3" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="S3" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="T3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15">
-      <c r="A4">
-        <v>1039018</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="K4">
-        <v>727</v>
-      </c>
-      <c r="L4">
-        <v>221</v>
-      </c>
-      <c r="M4">
-        <v>1000</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15">
-      <c r="A5">
-        <v>403133</v>
-      </c>
-      <c r="B5" s="79" t="s">
-        <v>263</v>
-      </c>
-      <c r="U5" t="s">
-        <v>265</v>
-      </c>
-      <c r="V5" t="s">
-        <v>267</v>
-      </c>
-      <c r="W5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="80" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" t="s">
-        <v>207</v>
-      </c>
-      <c r="K6">
-        <v>727</v>
-      </c>
-      <c r="L6">
-        <v>221</v>
-      </c>
-      <c r="M6">
-        <v>1000</v>
-      </c>
-      <c r="N6">
+        <v>209</v>
+      </c>
+      <c r="D2" s="45">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="45">
+        <v>586449</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45">
         <v>1</v>
       </c>
     </row>
@@ -4078,6 +4173,249 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="37.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15">
+      <c r="A1" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="R1" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="T1" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="U1" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="V1" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="W1" s="65" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="45">
+        <v>669589</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="47">
+        <v>1399</v>
+      </c>
+      <c r="E2" s="47">
+        <v>1</v>
+      </c>
+      <c r="F2" s="47">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="45">
+        <v>2</v>
+      </c>
+      <c r="I2" s="47">
+        <v>10000</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15">
+      <c r="A3" s="59">
+        <v>636958</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3">
+        <v>727</v>
+      </c>
+      <c r="L3">
+        <v>221</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="S3" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15">
+      <c r="A4">
+        <v>1039018</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4">
+        <v>727</v>
+      </c>
+      <c r="L4">
+        <v>221</v>
+      </c>
+      <c r="M4">
+        <v>1000</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15">
+      <c r="A5">
+        <v>403133</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="U5" t="s">
+        <v>265</v>
+      </c>
+      <c r="V5" t="s">
+        <v>267</v>
+      </c>
+      <c r="W5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="80" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6">
+        <v>727</v>
+      </c>
+      <c r="L6">
+        <v>221</v>
+      </c>
+      <c r="M6">
+        <v>1000</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -4087,15 +4425,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="31" customWidth="1"/>
-    <col min="2" max="3" width="14.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="31" customWidth="1"/>
-    <col min="5" max="6" width="28.28515625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="42.28515625" style="31"/>
+    <col min="1" max="1" customWidth="true" style="31" width="10.140625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="31" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="31" width="15.28515625" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="31" width="28.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="31" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="31" width="28.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="31" width="28.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="31" width="27.28515625" collapsed="true"/>
+    <col min="11" max="16384" style="31" width="42.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">
@@ -4249,7 +4587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4259,10 +4597,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1">
@@ -4303,12 +4641,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="23" style="26" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9.85546875" style="26"/>
+    <col min="1" max="1" customWidth="true" style="26" width="19.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="26" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="26" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="26" width="29.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="26" width="36.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4546,12 +4884,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9.85546875" style="26"/>
+    <col min="1" max="1" customWidth="true" style="26" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="26" width="28.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="26" width="22.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="26" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="26" width="22.5703125" collapsed="true"/>
+    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4791,12 +5129,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11" style="26" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9.85546875" style="26"/>
+    <col min="1" max="1" customWidth="true" style="26" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="26" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="26" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="26" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="26" width="12.140625" collapsed="true"/>
+    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5036,9 +5374,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -5277,11 +5615,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -5520,11 +5858,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -5763,10 +6101,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="9.85546875" style="26"/>
+    <col min="1" max="1" customWidth="true" style="26" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="26" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="26" width="9.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="26" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
+++ b/Azentio_FMS_Gowtham/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="309">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -945,13 +945,28 @@
     <t>credit Committee Recommendations</t>
   </si>
   <si>
-    <t>AT_RF_022_D1</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>89</t>
+    <t>AT_RF_109</t>
+  </si>
+  <si>
+    <t>Reason For Submission2</t>
+  </si>
+  <si>
+    <t>Modify Rejected Request</t>
+  </si>
+  <si>
+    <t>Modification Reason DropDown</t>
+  </si>
+  <si>
+    <t>Modification Reason Details</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Reason for Rejecting DropDown</t>
+  </si>
+  <si>
+    <t>Write Reason for Rejecting</t>
   </si>
 </sst>
 </file>
@@ -1413,8 +1428,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1754,7 +1771,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1770,14 +1787,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="6" width="20.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="6" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="6" width="29.28515625" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="6" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="13" width="18.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="6" width="16.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="6" width="19.140625" collapsed="true"/>
-    <col min="9" max="16384" style="6" width="30.5703125" collapsed="true"/>
+    <col min="1" max="1" width="20.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="19.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="30.5703125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1974,12 +1991,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="26" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="26" width="11.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="26" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="26" width="14.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="26" width="12.140625" collapsed="true"/>
-    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11" style="26" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.85546875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2219,43 +2236,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="42.5703125" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" width="59.0" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" width="31.5703125" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" customWidth="1"/>
+    <col min="30" max="30" width="28.28515625" customWidth="1"/>
+    <col min="31" max="31" width="15" customWidth="1"/>
+    <col min="32" max="32" width="19" customWidth="1"/>
+    <col min="33" max="33" width="34.42578125" customWidth="1"/>
+    <col min="34" max="34" width="25.85546875" customWidth="1"/>
+    <col min="35" max="35" width="34.42578125" customWidth="1"/>
+    <col min="36" max="36" width="18" customWidth="1"/>
+    <col min="37" max="37" width="19.140625" customWidth="1"/>
+    <col min="38" max="38" width="16.140625" customWidth="1"/>
+    <col min="39" max="39" width="16.85546875" customWidth="1"/>
+    <col min="40" max="40" width="13.7109375" customWidth="1"/>
+    <col min="41" max="41" width="42.5703125" customWidth="1"/>
+    <col min="42" max="42" width="15.28515625" customWidth="1"/>
+    <col min="43" max="43" width="29.28515625" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" customWidth="1"/>
+    <col min="45" max="45" width="33.42578125" customWidth="1"/>
+    <col min="46" max="46" width="59" customWidth="1"/>
+    <col min="47" max="47" width="24" customWidth="1"/>
+    <col min="48" max="48" width="31.5703125" customWidth="1"/>
+    <col min="49" max="49" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15">
@@ -3346,17 +3363,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="1" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15">
@@ -3459,9 +3476,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -3496,16 +3513,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.79296875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
@@ -3523,16 +3540,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="57" t="s">
+      <c r="A2">
+        <v>664435</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="88" t="s">
-        <v>303</v>
-      </c>
-      <c r="D2" s="89">
+      <c r="D2">
         <v>11235</v>
       </c>
     </row>
@@ -3551,13 +3565,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
@@ -3621,16 +3635,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15">
@@ -3719,13 +3733,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -3816,34 +3830,39 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" customWidth="1"/>
+    <col min="17" max="17" width="34.85546875" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" customWidth="1"/>
+    <col min="19" max="19" width="29.28515625" customWidth="1"/>
+    <col min="20" max="20" width="31.140625" customWidth="1"/>
+    <col min="21" max="21" width="29.85546875" customWidth="1"/>
+    <col min="22" max="22" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
+    <row r="1" spans="1:22" ht="15">
       <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
@@ -3895,8 +3914,23 @@
       <c r="Q1" s="62" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="S1" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="U1" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="V1" s="62" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="59">
         <v>542234</v>
       </c>
@@ -3922,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15">
+    <row r="3" spans="1:22" ht="15">
       <c r="A3" s="72">
         <v>749155</v>
       </c>
@@ -3939,7 +3973,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15">
+    <row r="4" spans="1:22" ht="15">
       <c r="A4">
         <v>570417</v>
       </c>
@@ -3959,7 +3993,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15">
+    <row r="5" spans="1:22" ht="15">
       <c r="A5">
         <v>853171</v>
       </c>
@@ -3988,7 +4022,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15">
+    <row r="6" spans="1:22" ht="15">
       <c r="A6">
         <v>1265139</v>
       </c>
@@ -4021,6 +4055,44 @@
       </c>
       <c r="Q6" s="60" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15">
+      <c r="A7">
+        <v>584038</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="N7">
+        <v>5000</v>
+      </c>
+      <c r="R7" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="S7" t="s">
+        <v>281</v>
+      </c>
+      <c r="T7" t="s">
+        <v>258</v>
+      </c>
+      <c r="U7" t="s">
+        <v>198</v>
+      </c>
+      <c r="V7" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4051,10 +4123,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="130.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="6" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="6" width="31.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="6" width="40.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="6" width="130.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="130.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4120,10 +4192,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
@@ -4182,27 +4254,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" customWidth="1"/>
+    <col min="21" max="21" width="37" customWidth="1"/>
+    <col min="22" max="22" width="27.140625" customWidth="1"/>
+    <col min="23" max="23" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15">
@@ -4425,15 +4497,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="31" width="10.140625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="31" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="31" width="15.28515625" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="31" width="28.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="31" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="31" width="28.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="31" width="28.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="31" width="27.28515625" collapsed="true"/>
-    <col min="11" max="16384" style="31" width="42.28515625" collapsed="true"/>
+    <col min="1" max="1" width="10.140625" style="31" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="31" customWidth="1"/>
+    <col min="5" max="6" width="28.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="42.28515625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">
@@ -4597,10 +4669,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1">
@@ -4641,12 +4713,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="26" width="19.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="26" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="26" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="26" width="29.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="26" width="36.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="23" style="26" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.85546875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4884,12 +4956,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="26" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="26" width="28.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="26" width="22.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="26" width="19.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="26" width="22.5703125" collapsed="true"/>
-    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.85546875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5129,12 +5201,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="26" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="26" width="11.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="26" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="26" width="14.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="26" width="12.140625" collapsed="true"/>
-    <col min="6" max="16384" style="26" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11" style="26" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.85546875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5374,9 +5446,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -5615,11 +5687,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -5858,11 +5930,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -6101,10 +6173,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="26" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="26" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="26" width="9.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="26" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="9.85546875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
